--- a/Projects/Zhen/BK for Wei.xlsx
+++ b/Projects/Zhen/BK for Wei.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17301"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -84,9 +84,6 @@
     <t>ALT</t>
   </si>
   <si>
-    <t>Alk Phos</t>
-  </si>
-  <si>
     <t>hepcidin</t>
   </si>
   <si>
@@ -738,10 +735,13 @@
     <t>DM150</t>
   </si>
   <si>
-    <t>BK/ HypBK</t>
-  </si>
-  <si>
-    <t>HypBK/BK</t>
+    <t>HypBKBK</t>
+  </si>
+  <si>
+    <t>BKHypBK</t>
+  </si>
+  <si>
+    <t>AlkPhos</t>
   </si>
 </sst>
 </file>
@@ -1151,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,7 +1196,7 @@
         <v>239</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K1" s="15" t="s">
         <v>1</v>
@@ -1238,10 +1238,10 @@
         <v>20</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
@@ -1257,10 +1257,10 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="C2">
         <v>46</v>
@@ -1269,7 +1269,7 @@
         <v>29.8</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1334,16 +1334,16 @@
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="C3">
         <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1408,10 +1408,10 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>40</v>
@@ -1420,7 +1420,7 @@
         <v>33.299999999999997</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1485,10 +1485,10 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>50</v>
@@ -1497,7 +1497,7 @@
         <v>19.600000000000001</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>37</v>
@@ -1574,7 +1574,7 @@
         <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1639,10 +1639,10 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>53</v>
@@ -1651,7 +1651,7 @@
         <v>41.5</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1716,10 +1716,10 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>46</v>
@@ -1728,7 +1728,7 @@
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1793,10 +1793,10 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>37</v>
@@ -1805,7 +1805,7 @@
         <v>43.6</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1870,10 +1870,10 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>32</v>
@@ -1882,7 +1882,7 @@
         <v>33.6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1947,10 +1947,10 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>73</v>
@@ -1959,7 +1959,7 @@
         <v>32.799999999999997</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2024,10 +2024,10 @@
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>57</v>
@@ -2036,7 +2036,7 @@
         <v>35.9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -2101,10 +2101,10 @@
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>55</v>
@@ -2113,7 +2113,7 @@
         <v>23.2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -2178,10 +2178,10 @@
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>54</v>
@@ -2190,7 +2190,7 @@
         <v>31.8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2255,10 +2255,10 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>41</v>
@@ -2267,7 +2267,7 @@
         <v>38.799999999999997</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -2332,10 +2332,10 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16">
         <v>69</v>
@@ -2344,7 +2344,7 @@
         <v>32.1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
@@ -2409,10 +2409,10 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="3">
         <v>46</v>
@@ -2421,7 +2421,7 @@
         <v>44.7</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F17" s="5">
         <v>1</v>
@@ -2486,10 +2486,10 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="8">
         <v>73</v>
@@ -2498,7 +2498,7 @@
         <v>25.8</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" s="7">
         <v>0</v>
@@ -2563,10 +2563,10 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>56</v>
@@ -2575,7 +2575,7 @@
         <v>27.4</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" s="6">
         <v>0</v>
@@ -2640,10 +2640,10 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <v>46</v>
@@ -2652,7 +2652,7 @@
         <v>25.4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F20" s="6">
         <v>0</v>
@@ -2717,10 +2717,10 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>44</v>
@@ -2729,7 +2729,7 @@
         <v>23.3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21" s="6">
         <v>0</v>
@@ -2794,10 +2794,10 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22">
         <v>20</v>
@@ -2806,7 +2806,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F22" s="6">
         <v>0</v>
@@ -2871,10 +2871,10 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>59</v>
@@ -2883,7 +2883,7 @@
         <v>18.899999999999999</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F23" s="6">
         <v>0</v>
@@ -2948,10 +2948,10 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>60</v>
@@ -2960,7 +2960,7 @@
         <v>30.1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F24" s="6">
         <v>1</v>
@@ -3025,10 +3025,10 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25">
         <v>66</v>
@@ -3037,7 +3037,7 @@
         <v>30.2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F25" s="7">
         <v>0</v>
@@ -3102,10 +3102,10 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>65</v>
@@ -3114,7 +3114,7 @@
         <v>27.3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" s="6">
         <v>0</v>
@@ -3179,10 +3179,10 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>59</v>
@@ -3191,7 +3191,7 @@
         <v>29.86</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="7">
         <v>1</v>
@@ -3250,10 +3250,10 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28">
         <v>20</v>
@@ -3262,7 +3262,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F28" s="7">
         <v>1</v>
@@ -3327,10 +3327,10 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29">
         <v>18</v>
@@ -3339,7 +3339,7 @@
         <v>34.4</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F29" s="7">
         <v>1</v>
@@ -3404,10 +3404,10 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="3">
         <v>78</v>
@@ -3416,7 +3416,7 @@
         <v>25.8</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F30" s="6">
         <v>1</v>
@@ -3458,10 +3458,10 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="8">
         <v>44</v>
@@ -3470,7 +3470,7 @@
         <v>36.4</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F31" s="7">
         <v>0</v>
@@ -3535,10 +3535,10 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="8">
         <v>59</v>
@@ -3547,7 +3547,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F32" s="7">
         <v>0</v>
@@ -3612,10 +3612,10 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="8">
         <v>33</v>
@@ -3624,7 +3624,7 @@
         <v>28</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F33" s="7">
         <v>1</v>
@@ -3689,10 +3689,10 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="8">
         <v>57</v>
@@ -3701,7 +3701,7 @@
         <v>24.9</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F34" s="7">
         <v>0</v>
@@ -3763,10 +3763,10 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35" s="8">
         <v>66</v>
@@ -3775,7 +3775,7 @@
         <v>26.5</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F35" s="7">
         <v>0</v>
@@ -3816,10 +3816,10 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" s="8">
         <v>43</v>
@@ -3828,7 +3828,7 @@
         <v>34.200000000000003</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F36" s="7">
         <v>1</v>
@@ -3893,10 +3893,10 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37" s="8">
         <v>65</v>
@@ -3905,7 +3905,7 @@
         <v>31.3</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F37" s="7">
         <v>1</v>
@@ -3970,10 +3970,10 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" s="8">
         <v>48</v>
@@ -3982,7 +3982,7 @@
         <v>35.9</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F38" s="7">
         <v>1</v>
@@ -4047,10 +4047,10 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C39" s="8">
         <v>61</v>
@@ -4059,7 +4059,7 @@
         <v>24.1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="7">
         <v>1</v>
@@ -4124,16 +4124,16 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40" s="8">
         <v>54</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F40" s="7">
         <v>0</v>
@@ -4198,10 +4198,10 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C41" s="8">
         <v>8</v>
@@ -4210,7 +4210,7 @@
         <v>15.1</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F41" s="7">
         <v>0</v>
@@ -4275,10 +4275,10 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C42" s="8">
         <v>52</v>
@@ -4287,7 +4287,7 @@
         <v>31.2</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F42" s="7">
         <v>0</v>
@@ -4352,10 +4352,10 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C43" s="8">
         <v>9</v>
@@ -4364,7 +4364,7 @@
         <v>35.4</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F43" s="7">
         <v>0</v>
@@ -4420,10 +4420,10 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C44" s="8">
         <v>51</v>
@@ -4432,7 +4432,7 @@
         <v>23.4</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F44" s="7">
         <v>0</v>
@@ -4497,10 +4497,10 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C45" s="8">
         <v>48</v>
@@ -4509,7 +4509,7 @@
         <v>26.7</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F45" s="7">
         <v>0</v>
@@ -4574,10 +4574,10 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C46" s="8">
         <v>57</v>
@@ -4586,7 +4586,7 @@
         <v>27.7</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F46" s="7">
         <v>0</v>
@@ -4651,10 +4651,10 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C47" s="8">
         <v>34</v>
@@ -4663,7 +4663,7 @@
         <v>22.7</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F47" s="7">
         <v>0</v>
@@ -4728,16 +4728,16 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C48" s="8">
         <v>2</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F48" s="7">
         <v>0</v>
@@ -4802,10 +4802,10 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C49" s="8">
         <v>46</v>
@@ -4814,7 +4814,7 @@
         <v>29.1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F49" s="7">
         <v>0</v>
@@ -4879,10 +4879,10 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C50" s="8">
         <v>49</v>
@@ -4891,7 +4891,7 @@
         <v>25.7</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F50" s="7">
         <v>0</v>
@@ -4956,10 +4956,10 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C51" s="8">
         <v>57</v>
@@ -4968,7 +4968,7 @@
         <v>37.4</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F51" s="7">
         <v>0</v>
@@ -5033,10 +5033,10 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C52" s="8">
         <v>66</v>
@@ -5045,7 +5045,7 @@
         <v>29.3</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F52" s="7">
         <v>0</v>
@@ -5071,10 +5071,10 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C53" s="8">
         <v>40</v>
@@ -5083,7 +5083,7 @@
         <v>24.2</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F53" s="7">
         <v>1</v>
@@ -5148,10 +5148,10 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C54" s="8">
         <v>45</v>
@@ -5160,7 +5160,7 @@
         <v>38.299999999999997</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F54" s="7">
         <v>0</v>
@@ -5225,10 +5225,10 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C55" s="8">
         <v>53</v>
@@ -5237,7 +5237,7 @@
         <v>29.96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F55" s="7">
         <v>1</v>
@@ -5296,10 +5296,10 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C56" s="8">
         <v>25</v>
@@ -5308,7 +5308,7 @@
         <v>37</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F56" s="7">
         <v>1</v>
@@ -5373,10 +5373,10 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C57" s="8">
         <v>43</v>
@@ -5385,7 +5385,7 @@
         <v>32</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F57" s="7">
         <v>0</v>
@@ -5450,10 +5450,10 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C58" s="8">
         <v>49</v>
@@ -5462,7 +5462,7 @@
         <v>27.6</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F58" s="7">
         <v>0</v>
@@ -5488,10 +5488,10 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C59" s="8">
         <v>50</v>
@@ -5500,7 +5500,7 @@
         <v>30.6</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F59" s="7">
         <v>1</v>
@@ -5552,10 +5552,10 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C60" s="8">
         <v>31</v>
@@ -5564,7 +5564,7 @@
         <v>44.4</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F60" s="7">
         <v>0</v>
@@ -5629,10 +5629,10 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C61" s="8">
         <v>58</v>
@@ -5641,7 +5641,7 @@
         <v>23.3</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F61" s="7">
         <v>0</v>
@@ -5706,10 +5706,10 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C62" s="8">
         <v>65</v>
@@ -5718,7 +5718,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F62" s="7">
         <v>1</v>
@@ -5783,10 +5783,10 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C63" s="8">
         <v>36</v>
@@ -5795,7 +5795,7 @@
         <v>35.1</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F63" s="7">
         <v>0</v>
@@ -5860,10 +5860,10 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C64" s="8">
         <v>57</v>
@@ -5872,7 +5872,7 @@
         <v>40.6</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F64" s="7">
         <v>0</v>
@@ -5937,10 +5937,10 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C65" s="8">
         <v>41</v>
@@ -5949,7 +5949,7 @@
         <v>42</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F65" s="7">
         <v>0</v>
@@ -6014,10 +6014,10 @@
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C66" s="8">
         <v>70</v>
@@ -6026,7 +6026,7 @@
         <v>23.4</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F66" s="7">
         <v>0</v>
@@ -6091,10 +6091,10 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C67" s="8">
         <v>65</v>
@@ -6103,7 +6103,7 @@
         <v>26.2</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F67" s="7">
         <v>0</v>
@@ -6168,10 +6168,10 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C68" s="8">
         <v>61</v>
@@ -6180,7 +6180,7 @@
         <v>30.1</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F68" s="7">
         <v>0</v>
@@ -6245,10 +6245,10 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C69" s="8">
         <v>55</v>
@@ -6257,7 +6257,7 @@
         <v>36.5</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F69" s="7">
         <v>1</v>
@@ -6322,10 +6322,10 @@
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C70" s="8">
         <v>32</v>
@@ -6334,7 +6334,7 @@
         <v>37.9</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F70" s="7">
         <v>0</v>
@@ -6399,10 +6399,10 @@
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C71" s="8">
         <v>71</v>
@@ -6411,7 +6411,7 @@
         <v>28.77</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F71" s="7">
         <v>0</v>
@@ -6476,10 +6476,10 @@
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C72" s="8">
         <v>62</v>
@@ -6488,7 +6488,7 @@
         <v>42.5</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F72" s="7">
         <v>1</v>
@@ -6553,10 +6553,10 @@
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C73" s="8">
         <v>59</v>
@@ -6565,7 +6565,7 @@
         <v>23.5</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F73" s="7">
         <v>0</v>
@@ -6630,16 +6630,16 @@
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C74" s="8">
         <v>71</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F74" s="7">
         <v>0</v>
@@ -6704,10 +6704,10 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C75" s="8">
         <v>62</v>
@@ -6716,7 +6716,7 @@
         <v>23.1</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F75" s="7">
         <v>0</v>
@@ -6781,10 +6781,10 @@
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C76" s="8">
         <v>24</v>
@@ -6793,7 +6793,7 @@
         <v>52.1</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F76" s="7">
         <v>0</v>
@@ -6858,10 +6858,10 @@
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C77" s="8">
         <v>68</v>
@@ -6870,7 +6870,7 @@
         <v>31.7</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F77" s="7">
         <v>1</v>
@@ -6935,10 +6935,10 @@
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C78" s="8">
         <v>71</v>
@@ -6947,7 +6947,7 @@
         <v>23.1</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F78" s="7">
         <v>0</v>
@@ -7012,10 +7012,10 @@
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C79" s="8">
         <v>15</v>
@@ -7024,7 +7024,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F79" s="7">
         <v>0</v>
@@ -7056,10 +7056,10 @@
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C80" s="8">
         <v>32</v>
@@ -7068,7 +7068,7 @@
         <v>33.700000000000003</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F80" s="7">
         <v>0</v>
@@ -7133,16 +7133,16 @@
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C81" s="8">
         <v>46</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F81" s="7">
         <v>0</v>
@@ -7207,10 +7207,10 @@
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C82" s="8">
         <v>34</v>
@@ -7219,7 +7219,7 @@
         <v>36.9</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F82" s="7">
         <v>0</v>
@@ -7284,16 +7284,16 @@
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C83" s="8">
         <v>36</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F83" s="7">
         <v>0</v>
@@ -7358,10 +7358,10 @@
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C84" s="8">
         <v>65</v>
@@ -7370,7 +7370,7 @@
         <v>26.9</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F84" s="7">
         <v>0</v>
@@ -7435,10 +7435,10 @@
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C85" s="8">
         <v>52</v>
@@ -7447,7 +7447,7 @@
         <v>27.38</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F85" s="7">
         <v>0</v>
@@ -7512,10 +7512,10 @@
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C86" s="8">
         <v>56</v>
@@ -7524,7 +7524,7 @@
         <v>22.7</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F86" s="7">
         <v>0</v>
@@ -7589,10 +7589,10 @@
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C87" s="8">
         <v>60</v>
@@ -7601,7 +7601,7 @@
         <v>24.38</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F87" s="7">
         <v>0</v>
@@ -7666,10 +7666,10 @@
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C88" s="8">
         <v>54</v>
@@ -7678,7 +7678,7 @@
         <v>28.6</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F88" s="7">
         <v>0</v>
@@ -7743,10 +7743,10 @@
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C89" s="8">
         <v>46</v>
@@ -7755,7 +7755,7 @@
         <v>29.9</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F89" s="7">
         <v>0</v>
@@ -7820,10 +7820,10 @@
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C90" s="8">
         <v>38</v>
@@ -7832,7 +7832,7 @@
         <v>52.8</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F90" s="7">
         <v>0</v>
@@ -7897,10 +7897,10 @@
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C91" s="8">
         <v>28</v>
@@ -7909,7 +7909,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="7">
         <v>1</v>
@@ -7974,10 +7974,10 @@
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C92" s="8">
         <v>20</v>
@@ -7986,7 +7986,7 @@
         <v>20.5</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F92" s="7">
         <v>1</v>
@@ -8051,10 +8051,10 @@
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C93" s="8">
         <v>28</v>
@@ -8063,7 +8063,7 @@
         <v>23.3</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F93" s="7">
         <v>1</v>
@@ -8128,10 +8128,10 @@
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C94" s="8">
         <v>75</v>
@@ -8140,7 +8140,7 @@
         <v>38</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F94" s="7">
         <v>1</v>
@@ -8205,10 +8205,10 @@
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C95" s="8">
         <v>52</v>
@@ -8217,7 +8217,7 @@
         <v>31.6</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F95" s="7">
         <v>1</v>
@@ -8282,10 +8282,10 @@
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C96" s="8">
         <v>65</v>
@@ -8294,7 +8294,7 @@
         <v>27.7</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F96" s="7">
         <v>1</v>
@@ -8359,10 +8359,10 @@
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C97" s="8">
         <v>58</v>
@@ -8371,7 +8371,7 @@
         <v>39.1</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F97" s="7">
         <v>0</v>
@@ -8436,10 +8436,10 @@
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C98" s="8">
         <v>76</v>
@@ -8448,7 +8448,7 @@
         <v>28.9</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F98" s="7">
         <v>1</v>
@@ -8513,10 +8513,10 @@
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C99" s="8">
         <v>55</v>
@@ -8525,7 +8525,7 @@
         <v>23.2</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F99" s="7">
         <v>1</v>
@@ -8590,10 +8590,10 @@
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C100" s="8">
         <v>47</v>
@@ -8602,7 +8602,7 @@
         <v>27.3</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F100" s="7">
         <v>1</v>
@@ -8667,10 +8667,10 @@
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C101" s="8">
         <v>53</v>
@@ -8679,7 +8679,7 @@
         <v>35.700000000000003</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F101" s="7">
         <v>1</v>
@@ -8744,10 +8744,10 @@
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C102" s="8">
         <v>69</v>
@@ -8756,7 +8756,7 @@
         <v>37.700000000000003</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F102" s="7">
         <v>1</v>
@@ -8821,10 +8821,10 @@
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C103" s="8">
         <v>72</v>
@@ -8833,7 +8833,7 @@
         <v>28.5</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F103" s="7">
         <v>1</v>
@@ -8898,10 +8898,10 @@
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C104" s="8">
         <v>53</v>
@@ -8910,7 +8910,7 @@
         <v>23.6</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F104" s="7">
         <v>1</v>
@@ -8975,10 +8975,10 @@
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C105" s="8">
         <v>72</v>
@@ -8987,7 +8987,7 @@
         <v>25.2</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F105" s="7">
         <v>1</v>
@@ -9052,10 +9052,10 @@
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C106" s="8">
         <v>76</v>
@@ -9064,7 +9064,7 @@
         <v>25.8</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F106" s="7">
         <v>0</v>
@@ -9129,10 +9129,10 @@
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C107" s="8">
         <v>55</v>
@@ -9141,7 +9141,7 @@
         <v>37.799999999999997</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F107" s="7">
         <v>1</v>
@@ -9206,10 +9206,10 @@
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C108" s="8">
         <v>41</v>
@@ -9218,7 +9218,7 @@
         <v>38.799999999999997</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F108" s="7">
         <v>1</v>
@@ -9283,10 +9283,10 @@
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C109" s="8">
         <v>41</v>
@@ -9295,7 +9295,7 @@
         <v>32.6</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F109" s="7">
         <v>1</v>
@@ -9336,10 +9336,10 @@
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C110" s="8">
         <v>61</v>
@@ -9348,7 +9348,7 @@
         <v>31.3</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F110" s="7">
         <v>1</v>
@@ -9413,10 +9413,10 @@
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C111" s="8">
         <v>61</v>
@@ -9425,7 +9425,7 @@
         <v>37</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F111" s="7">
         <v>1</v>
@@ -9490,10 +9490,10 @@
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C112" s="8">
         <v>63</v>
@@ -9502,7 +9502,7 @@
         <v>46.4</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F112" s="7">
         <v>1</v>
@@ -9567,10 +9567,10 @@
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C113" s="8">
         <v>55</v>
@@ -9579,7 +9579,7 @@
         <v>24.5</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F113" s="7">
         <v>1</v>
@@ -9644,10 +9644,10 @@
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C114" s="8">
         <v>28</v>
@@ -9656,7 +9656,7 @@
         <v>40.1</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F114" s="7">
         <v>0</v>
@@ -9717,10 +9717,10 @@
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C115" s="8">
         <v>25</v>
@@ -9729,7 +9729,7 @@
         <v>31</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F115" s="7">
         <v>0</v>
@@ -9794,10 +9794,10 @@
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C116" s="8">
         <v>43</v>
@@ -9806,7 +9806,7 @@
         <v>33.6</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F116" s="2">
         <v>0</v>
@@ -9871,10 +9871,10 @@
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C117" s="8">
         <v>51</v>
@@ -9883,7 +9883,7 @@
         <v>26.9</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F117" s="2">
         <v>0</v>
@@ -9948,10 +9948,10 @@
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C118" s="8">
         <v>48</v>
@@ -9960,7 +9960,7 @@
         <v>30.5</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F118" s="2">
         <v>0</v>
@@ -10025,16 +10025,16 @@
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C119" s="8">
         <v>23</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F119" s="2">
         <v>0</v>
@@ -10099,10 +10099,10 @@
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C120" s="8">
         <v>63</v>
@@ -10111,7 +10111,7 @@
         <v>27.5</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F120" s="2">
         <v>1</v>
@@ -10176,10 +10176,10 @@
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C121" s="8">
         <v>53</v>
@@ -10188,7 +10188,7 @@
         <v>25.6</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F121" s="2">
         <v>0</v>
@@ -10253,16 +10253,16 @@
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C122" s="8">
         <v>68</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F122" s="2">
         <v>0</v>
@@ -10327,10 +10327,10 @@
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C123" s="8">
         <v>69</v>
@@ -10339,7 +10339,7 @@
         <v>32.5</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F123" s="2">
         <v>0</v>
@@ -10404,10 +10404,10 @@
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C124" s="8">
         <v>77</v>
@@ -10416,7 +10416,7 @@
         <v>30</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F124" s="2">
         <v>0</v>
@@ -10481,10 +10481,10 @@
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C125" s="8">
         <v>78</v>
@@ -10493,7 +10493,7 @@
         <v>19.5</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F125" s="2">
         <v>0</v>
@@ -10558,10 +10558,10 @@
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C126" s="8">
         <v>44</v>
@@ -10570,7 +10570,7 @@
         <v>27.4</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F126" s="2">
         <v>0</v>
@@ -10635,10 +10635,10 @@
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C127" s="8">
         <v>49</v>
@@ -10647,7 +10647,7 @@
         <v>40.299999999999997</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F127" s="2">
         <v>1</v>
@@ -10712,10 +10712,10 @@
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C128" s="8">
         <v>56</v>
@@ -10724,7 +10724,7 @@
         <v>32.299999999999997</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F128" s="2">
         <v>1</v>
@@ -10750,10 +10750,10 @@
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C129" s="8">
         <v>19</v>
@@ -10762,7 +10762,7 @@
         <v>28.3</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F129" s="2">
         <v>1</v>
@@ -10827,10 +10827,10 @@
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C130" s="8">
         <v>62</v>
@@ -10839,7 +10839,7 @@
         <v>39.9</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F130" s="2">
         <v>1</v>
@@ -10904,10 +10904,10 @@
     </row>
     <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C131" s="8">
         <v>62</v>
@@ -10916,7 +10916,7 @@
         <v>37.1</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F131" s="2">
         <v>1</v>
@@ -10981,10 +10981,10 @@
     </row>
     <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B132" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C132" s="8">
         <v>28</v>
@@ -10993,7 +10993,7 @@
         <v>23.5</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F132" s="2">
         <v>1</v>
@@ -11025,10 +11025,10 @@
     </row>
     <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C133" s="8">
         <v>54</v>
@@ -11037,7 +11037,7 @@
         <v>31.8</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F133" s="2">
         <v>1</v>
